--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -1,34 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1615022D-1A0A-4EA0-BC0E-D9C2B4ADE381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy sent to the battery per round" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Energy sent to the battery per " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Total energy sent by players to battery</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +78,917 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Energy sent to the battery per '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total energy sent by players to battery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Energy sent to the battery per '!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D5F-4BDA-A9E2-2EA81DEFB99F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1309864448"/>
+        <c:axId val="1304296560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1309864448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304296560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304296560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309864448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79711546-5930-2D7E-87E9-68C10E509471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,27 +1275,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Season</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +428,13 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>It is now spring! Energy production is not affected this round</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy sent to the battery per round" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Energy sent to battery" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,15 +424,29 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Season</t>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Energy sent to battery by players</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Event ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>It is now spring! Energy production is not affected this round</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -465,9 +465,108 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
         <v>2</v>
       </c>
     </row>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC89D91-C0B1-4809-BB0D-38C809167EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy sent to battery" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Energy sent to battery" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Energy sent to battery by players</t>
+  </si>
+  <si>
+    <t>Event ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +65,917 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Energy sent to battery'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy sent to battery by players</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Energy sent to battery'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF7A-4ABD-9641-132015E82F9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1227361968"/>
+        <c:axId val="1225295712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1227361968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225295712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225295712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227361968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CC3614-D498-2444-667A-2F659E9328A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,169 +1262,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Energy sent to battery by players</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Event ID</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>37</v>
+      </c>
+      <c r="C13">
         <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -469,6 +469,39 @@
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -480,94 +480,6 @@
       </c>
       <c r="C5" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -1,34 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901F4C9-41F7-4B89-9934-F53A42021E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy sent to battery" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Energy sent to battery" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Energy sent to battery by players in this round</t>
+  </si>
+  <si>
+    <t>Event ID</t>
+  </si>
+  <si>
+    <t>Event name</t>
+  </si>
+  <si>
+    <t>Energy decision at end of this round</t>
+  </si>
+  <si>
+    <t>A helping hand!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a moderate deficit! As you are now forced by the system to turn of appliances, you lose the following points on the community meter: 1 environmental, 1 morale, and 1 economic. 
+</t>
+  </si>
+  <si>
+    <t>Sorry!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a servere deficit! You can now only use either a action card or a player action in the next round. Due to the community having to buy energy from the national grid, you also lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. 
+</t>
+  </si>
+  <si>
+    <t>Allergies in Energy city!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +88,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,166 +390,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Energy sent to battery by players</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Event ID</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901F4C9-41F7-4B89-9934-F53A42021E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A801D1D-30BB-442D-9C7C-27D069AFFEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Round</t>
   </si>
@@ -37,21 +37,32 @@
     <t>Energy decision at end of this round</t>
   </si>
   <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Sorry!</t>
+  </si>
+  <si>
+    <t>We will save the excess energy for now.</t>
+  </si>
+  <si>
+    <t>Blizzard in spring!</t>
+  </si>
+  <si>
     <t>A helping hand!</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a moderate deficit! As you are now forced by the system to turn of appliances, you lose the following points on the community meter: 1 environmental, 1 morale, and 1 economic. 
+    <t xml:space="preserve">This is a mild excess! This means we sell the energy, but not enough to get any returns. You get the folloing points on the community meter: 1 economic, and 1 morale. 
 </t>
-  </si>
-  <si>
-    <t>Sorry!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a servere deficit! You can now only use either a action card or a player action in the next round. Due to the community having to buy energy from the national grid, you also lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. 
-</t>
-  </si>
-  <si>
-    <t>Allergies in Energy city!</t>
   </si>
 </sst>
 </file>
@@ -391,13 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,56 +426,86 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,50 +438,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,410 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Allergies in Energy city!</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild deficit! In order to make up for this, we implement a curfew to restrict energy use in Energy City until the situation has stabilized. You lose 1 morale point on the community meter.
-</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A helping hand!</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>We will save the excess energy for now.</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Blizzard in spring!</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild excess! This means we sell the energy. These profits will be used to cover upkeep of the battery. You get the folloing points on the community meter: 1 economic, and 1 morale. 
-</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Heat wave!</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>We will save the excess energy for now.</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Community member in need!</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>We will save the excess energy for now.</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Circus in town!</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild excess! This means we sell the energy. These profits will be used to cover upkeep of the battery. You get the folloing points on the community meter: 1 economic, and 1 morale. 
-</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>There has been a mistake!</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is an equilibirum! Everything is as it should be. You neither lose nor gain tokens or community meter points this time. 
-</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Saving week!</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild deficit! In order to make up for this, we implement a curfew to restrict energy use in Energy City until the situation has stabilized. You lose 1 morale point on the community meter.
-</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Gas leak!</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild deficit! In order to make up for this, we implement a curfew to restrict energy use in Energy City until the situation has stabilized. You lose 1 morale point on the community meter.
-</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>New Year, new injuries!</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild deficit! In order to make up for this, we implement a curfew to restrict energy use in Energy City until the situation has stabilized. You lose 1 morale point on the community meter.
-</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Merry Christmas!</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>We will save the excess energy for now.</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Wind!</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a mild excess! This means we sell the energy. These profits will be used to cover upkeep of the battery. You get the folloing points on the community meter: 1 economic, and 1 morale. 
-</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,11 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Allergies in Energy City!</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sorry!</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Blizzard in spring!</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Circus in town!</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,11 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Allergies in Energy City!</t>
+          <t>Blizzard in spring!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,11 +498,11 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sorry!</t>
+          <t>Allergies in Energy City!</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,36 +520,14 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Blizzard in spring!</t>
+          <t>A helping hand!</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Circus in town!</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
 </t>

--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -1,34 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A40D1-24C5-41A2-9AC5-2BE8006E7EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy sent to battery" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Energy sent to battery" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Energy sent to battery by players in this round</t>
+  </si>
+  <si>
+    <t>Event ID</t>
+  </si>
+  <si>
+    <t>Event name</t>
+  </si>
+  <si>
+    <t>Energy decision at end of this round</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Allergies in Energy City!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +90,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,67 +392,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Energy sent to battery by players in this round</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Event ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Event name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Energy decision at end of this round</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -1,77 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A40D1-24C5-41A2-9AC5-2BE8006E7EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy sent to battery" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy sent to battery" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>Energy sent to battery by players in this round</t>
-  </si>
-  <si>
-    <t>Event ID</t>
-  </si>
-  <si>
-    <t>Event name</t>
-  </si>
-  <si>
-    <t>Energy decision at end of this round</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Allergies in Energy City!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a servere deficit! In order to have enough energy for everyone in the community, I had to buy energy from the national grid. As a result, you lose the following points on the community meter: 2 environmental, 2 social, and 2 economic. You can only use either an action card or a player action in the next round. 
-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,92 +408,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Energy sent to battery by players in this round</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Event ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Event name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Energy decision at end of this round</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A helping hand!</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a mild deficit! In order to make up for this, we implement a curfew to restrict energy use in Energy City until the situation has stabilized. You lose 1 morale point on the community meter.
+</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>-3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Allergies in Energy City!</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>We will save the excess energy for now.</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/energy_per_round.xlsx
+++ b/energy_per_round.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A helping hand!</t>
+          <t>Allergies in Energy City!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,8 +489,14 @@
 </t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -498,14 +504,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Allergies in Energy City!</t>
+          <t>Sorry!</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -513,8 +519,75 @@
           <t>We will save the excess energy for now.</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Blizzard in spring!</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is an equilibirum! Everything is as it should be. You neither lose nor gain tokens or community meter points this time. 
+</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Circus in town!</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>We will save the excess energy for now.</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
